--- a/info/metricas/RLS.xlsx
+++ b/info/metricas/RLS.xlsx
@@ -498,31 +498,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>499.4118520626329</v>
+        <v>505.1735296383133</v>
       </c>
       <c r="C2" t="n">
-        <v>4.769212753101558e+17</v>
+        <v>5.275181652869697e+17</v>
       </c>
       <c r="D2" t="n">
-        <v>380769.9363270107</v>
+        <v>381442.1862174636</v>
       </c>
       <c r="E2" t="n">
-        <v>461.1490276746347</v>
+        <v>468.6994812868284</v>
       </c>
       <c r="F2" t="n">
-        <v>327694.0287764017</v>
+        <v>336757.5033686695</v>
       </c>
       <c r="G2" t="n">
-        <v>572.4456557407015</v>
+        <v>580.3081107210802</v>
       </c>
       <c r="H2" t="n">
-        <v>2435.264966235143</v>
+        <v>2217.479681649028</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1135666480190287</v>
+        <v>0.1049476668757985</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7517511986958008</v>
+        <v>0.7436946015544934</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -538,31 +538,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>504.3488303789956</v>
+        <v>501.9705772945375</v>
       </c>
       <c r="C3" t="n">
-        <v>5.051559002539775e+17</v>
+        <v>4.833320085757416e+17</v>
       </c>
       <c r="D3" t="n">
-        <v>377456.5523245069</v>
+        <v>373249.6460965021</v>
       </c>
       <c r="E3" t="n">
-        <v>470.1959089822419</v>
+        <v>469.7024563051502</v>
       </c>
       <c r="F3" t="n">
-        <v>334991.2278769829</v>
+        <v>332979.9509576132</v>
       </c>
       <c r="G3" t="n">
-        <v>578.7842671298029</v>
+        <v>577.044149920622</v>
       </c>
       <c r="H3" t="n">
-        <v>1928.244824137965</v>
+        <v>2865.062923870521</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1157667062575118</v>
+        <v>0.1196524570468297</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7511744252399729</v>
+        <v>0.7429525527753533</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -578,31 +578,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>500.1631534700802</v>
+        <v>500.7334938056597</v>
       </c>
       <c r="C4" t="n">
-        <v>4.850950374545513e+17</v>
+        <v>4.917726717598584e+17</v>
       </c>
       <c r="D4" t="n">
-        <v>377652.1884421687</v>
+        <v>378539.2472029821</v>
       </c>
       <c r="E4" t="n">
-        <v>464.2183960769893</v>
+        <v>465.4229582373665</v>
       </c>
       <c r="F4" t="n">
-        <v>329450.9077375717</v>
+        <v>331363.4022536175</v>
       </c>
       <c r="G4" t="n">
-        <v>573.9781422123771</v>
+        <v>575.6417308132008</v>
       </c>
       <c r="H4" t="n">
-        <v>1732.230475322837</v>
+        <v>2432.988082176681</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09413026857498263</v>
+        <v>0.09903297965709368</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7455659511843121</v>
+        <v>0.7420524225627352</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -618,31 +618,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>495.1155914184582</v>
+        <v>503.5422134085943</v>
       </c>
       <c r="C5" t="n">
-        <v>4.971847043762836e+17</v>
+        <v>4.977438691367694e+17</v>
       </c>
       <c r="D5" t="n">
-        <v>382650.5317792197</v>
+        <v>377418.3500819656</v>
       </c>
       <c r="E5" t="n">
-        <v>453.8200126174759</v>
+        <v>466.9014451234099</v>
       </c>
       <c r="F5" t="n">
-        <v>323981.2362663206</v>
+        <v>334814.7586916591</v>
       </c>
       <c r="G5" t="n">
-        <v>569.1934963317137</v>
+        <v>578.6317988943048</v>
       </c>
       <c r="H5" t="n">
-        <v>1803.854491503276</v>
+        <v>1727.970073497516</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09276758176109001</v>
+        <v>0.1123121692543668</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7507671224996694</v>
+        <v>0.7475783790731962</v>
       </c>
       <c r="K5" t="n">
         <v>3</v>
@@ -658,31 +658,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>504.7357510703768</v>
+        <v>507.0915382109754</v>
       </c>
       <c r="C6" t="n">
-        <v>5.320137071267706e+17</v>
+        <v>5.031831312100135e+17</v>
       </c>
       <c r="D6" t="n">
-        <v>381446.6434048775</v>
+        <v>375097.516306374</v>
       </c>
       <c r="E6" t="n">
-        <v>473.6812526211901</v>
+        <v>467.8034410230832</v>
       </c>
       <c r="F6" t="n">
-        <v>333347.2944221671</v>
+        <v>339995.7283632055</v>
       </c>
       <c r="G6" t="n">
-        <v>577.3623597206239</v>
+        <v>583.0915265746927</v>
       </c>
       <c r="H6" t="n">
-        <v>1796.266347794694</v>
+        <v>1754.395229643372</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0982625350343318</v>
+        <v>0.1326679967792997</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7484639746544053</v>
+        <v>0.755431513514393</v>
       </c>
       <c r="K6" t="n">
         <v>4</v>
@@ -698,31 +698,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>510.0079211261761</v>
+        <v>500.3977998903043</v>
       </c>
       <c r="C7" t="n">
-        <v>4.912345649142121e+17</v>
+        <v>4.769384243693221e+17</v>
       </c>
       <c r="D7" t="n">
-        <v>376968.1540262892</v>
+        <v>385122.9409306477</v>
       </c>
       <c r="E7" t="n">
-        <v>475.5171357679226</v>
+        <v>463.295610932719</v>
       </c>
       <c r="F7" t="n">
-        <v>344286.1893509447</v>
+        <v>328931.2744202421</v>
       </c>
       <c r="G7" t="n">
-        <v>586.7590556190374</v>
+        <v>573.5253040801618</v>
       </c>
       <c r="H7" t="n">
-        <v>1954.58458985863</v>
+        <v>2081.874490619211</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09227063471092611</v>
+        <v>0.1169008587943191</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7432450506928672</v>
+        <v>0.7495840236295161</v>
       </c>
       <c r="K7" t="n">
         <v>5</v>
@@ -738,31 +738,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>506.2320747119103</v>
+        <v>497.3471592751242</v>
       </c>
       <c r="C8" t="n">
-        <v>5.217214316453569e+17</v>
+        <v>5.116541696530488e+17</v>
       </c>
       <c r="D8" t="n">
-        <v>374413.9728807</v>
+        <v>380344.2264579264</v>
       </c>
       <c r="E8" t="n">
-        <v>473.5742090846949</v>
+        <v>467.4401829239575</v>
       </c>
       <c r="F8" t="n">
-        <v>337055.1317163742</v>
+        <v>326372.3651245898</v>
       </c>
       <c r="G8" t="n">
-        <v>580.5644940197205</v>
+        <v>571.2900884179506</v>
       </c>
       <c r="H8" t="n">
-        <v>2322.107689749635</v>
+        <v>2323.788676928058</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09477821574981415</v>
+        <v>0.07614229459589605</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7286045918055796</v>
+        <v>0.7326079964916981</v>
       </c>
       <c r="K8" t="n">
         <v>6</v>
@@ -778,31 +778,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>502.446894366174</v>
+        <v>504.2580182914808</v>
       </c>
       <c r="C9" t="n">
-        <v>4.997712526399998e+17</v>
+        <v>4.961503294562821e+17</v>
       </c>
       <c r="D9" t="n">
-        <v>377755.0472481583</v>
+        <v>381909.6477034536</v>
       </c>
       <c r="E9" t="n">
-        <v>470.064676372471</v>
+        <v>469.1526250199217</v>
       </c>
       <c r="F9" t="n">
-        <v>334878.7437961801</v>
+        <v>335167.4510632958</v>
       </c>
       <c r="G9" t="n">
-        <v>578.6870862531669</v>
+        <v>578.936482753761</v>
       </c>
       <c r="H9" t="n">
-        <v>2873.93934508951</v>
+        <v>1808.489541996316</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09997791340626339</v>
+        <v>0.0856192395466846</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7307034234966384</v>
+        <v>0.737409499097246</v>
       </c>
       <c r="K9" t="n">
         <v>7</v>
@@ -818,31 +818,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498.1208596174486</v>
+        <v>501.3571576182412</v>
       </c>
       <c r="C10" t="n">
-        <v>4.917095315225349e+17</v>
+        <v>5.110808661193791e+17</v>
       </c>
       <c r="D10" t="n">
-        <v>381683.0818568949</v>
+        <v>375250.6204885519</v>
       </c>
       <c r="E10" t="n">
-        <v>464.9293840151727</v>
+        <v>464.4824849101115</v>
       </c>
       <c r="F10" t="n">
-        <v>326412.3292542152</v>
+        <v>331121.6000158697</v>
       </c>
       <c r="G10" t="n">
-        <v>571.3250644372389</v>
+        <v>575.4316640713037</v>
       </c>
       <c r="H10" t="n">
-        <v>2120.760357005053</v>
+        <v>1953.023489891312</v>
       </c>
       <c r="I10" t="n">
-        <v>0.131027430303049</v>
+        <v>0.1120550947837348</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7577264509493917</v>
+        <v>0.7505247184951792</v>
       </c>
       <c r="K10" t="n">
         <v>8</v>
@@ -858,31 +858,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>502.4351480194088</v>
+        <v>501.1488712675059</v>
       </c>
       <c r="C11" t="n">
-        <v>4.970579104639956e+17</v>
+        <v>4.978457086547597e+17</v>
       </c>
       <c r="D11" t="n">
-        <v>376400.1293705314</v>
+        <v>378783.9619106593</v>
       </c>
       <c r="E11" t="n">
-        <v>467.2762765101844</v>
+        <v>473.6768426824457</v>
       </c>
       <c r="F11" t="n">
-        <v>332000.9500983857</v>
+        <v>326688.9384112807</v>
       </c>
       <c r="G11" t="n">
-        <v>576.1952360948376</v>
+        <v>571.5670900351776</v>
       </c>
       <c r="H11" t="n">
-        <v>1822.47246902766</v>
+        <v>1717.940809472644</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1239015483538989</v>
+        <v>0.09350793938961155</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7480629842824307</v>
+        <v>0.7527424826134449</v>
       </c>
       <c r="K11" t="n">
         <v>9</v>
@@ -974,31 +974,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>498.6162826884122</v>
+        <v>505.1262361269841</v>
       </c>
       <c r="C2" t="n">
-        <v>4.746849745110251e+17</v>
+        <v>5.258937116362804e+17</v>
       </c>
       <c r="D2" t="n">
-        <v>380207.0976868346</v>
+        <v>381243.0091078443</v>
       </c>
       <c r="E2" t="n">
-        <v>462.8025742035924</v>
+        <v>469.4959978248437</v>
       </c>
       <c r="F2" t="n">
-        <v>327364.1861706889</v>
+        <v>337238.4802349337</v>
       </c>
       <c r="G2" t="n">
-        <v>572.1574837146578</v>
+        <v>580.7223779353898</v>
       </c>
       <c r="H2" t="n">
-        <v>2406.166571847594</v>
+        <v>2228.798337406748</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1144588934093396</v>
+        <v>0.1036693005082429</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7508916223979556</v>
+        <v>0.7429744192261826</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1014,31 +1014,31 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>504.447180492691</v>
+        <v>501.9744211262632</v>
       </c>
       <c r="C3" t="n">
-        <v>5.041952669965697e+17</v>
+        <v>4.828239919389147e+17</v>
       </c>
       <c r="D3" t="n">
-        <v>377294.9629303863</v>
+        <v>372815.631897733</v>
       </c>
       <c r="E3" t="n">
-        <v>468.2146564117775</v>
+        <v>470.2901350827771</v>
       </c>
       <c r="F3" t="n">
-        <v>335907.9940507674</v>
+        <v>333831.8715060439</v>
       </c>
       <c r="G3" t="n">
-        <v>579.5757017428934</v>
+        <v>577.7818546008899</v>
       </c>
       <c r="H3" t="n">
-        <v>1930.961120481069</v>
+        <v>2863.091491227822</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1133468364042786</v>
+        <v>0.1174001107435602</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7495823594657995</v>
+        <v>0.7413535931539885</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -1054,31 +1054,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>499.8738554422321</v>
+        <v>500.0731046526139</v>
       </c>
       <c r="C4" t="n">
-        <v>4.822399650454376e+17</v>
+        <v>4.897490798591361e+17</v>
       </c>
       <c r="D4" t="n">
-        <v>377159.833102768</v>
+        <v>377952.64038156</v>
       </c>
       <c r="E4" t="n">
-        <v>464.3477155736551</v>
+        <v>465.7758435089087</v>
       </c>
       <c r="F4" t="n">
-        <v>329686.4020107739</v>
+        <v>331212.3364414695</v>
       </c>
       <c r="G4" t="n">
-        <v>574.1832477622225</v>
+        <v>575.5105007221584</v>
       </c>
       <c r="H4" t="n">
-        <v>1730.632028591103</v>
+        <v>2404.335597821033</v>
       </c>
       <c r="I4" t="n">
-        <v>0.093482745290003</v>
+        <v>0.09944372300931981</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7444184904600132</v>
+        <v>0.7414691004029645</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -1094,31 +1094,31 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>494.7639427803213</v>
+        <v>503.3469549684856</v>
       </c>
       <c r="C5" t="n">
-        <v>4.950388155091899e+17</v>
+        <v>4.949975415795236e+17</v>
       </c>
       <c r="D5" t="n">
-        <v>382444.8240901787</v>
+        <v>377129.0605808303</v>
       </c>
       <c r="E5" t="n">
-        <v>453.3566053105815</v>
+        <v>467.5812191188378</v>
       </c>
       <c r="F5" t="n">
-        <v>324379.2325898898</v>
+        <v>335137.2738472892</v>
       </c>
       <c r="G5" t="n">
-        <v>569.5430032841153</v>
+        <v>578.9104195359496</v>
       </c>
       <c r="H5" t="n">
-        <v>1790.726385885634</v>
+        <v>1730.551016221394</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09165308768963354</v>
+        <v>0.1114570911210055</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7493430145892619</v>
+        <v>0.746572531092133</v>
       </c>
       <c r="K5" t="n">
         <v>3</v>
@@ -1134,31 +1134,31 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>505.2279940890357</v>
+        <v>507.1594226221732</v>
       </c>
       <c r="C6" t="n">
-        <v>5.323306076264525e+17</v>
+        <v>5.022171601677133e+17</v>
       </c>
       <c r="D6" t="n">
-        <v>381176.0111168981</v>
+        <v>374973.483304669</v>
       </c>
       <c r="E6" t="n">
-        <v>474.7172237090163</v>
+        <v>467.3190054953635</v>
       </c>
       <c r="F6" t="n">
-        <v>334468.8191960007</v>
+        <v>340787.8383533806</v>
       </c>
       <c r="G6" t="n">
-        <v>578.3327927724665</v>
+        <v>583.7703644014318</v>
       </c>
       <c r="H6" t="n">
-        <v>1794.366716534123</v>
+        <v>1745.518304104771</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09522869938192013</v>
+        <v>0.1306473174376589</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7471366121599743</v>
+        <v>0.7540600786814127</v>
       </c>
       <c r="K6" t="n">
         <v>4</v>
@@ -1174,31 +1174,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>509.9050988187006</v>
+        <v>499.8635659226956</v>
       </c>
       <c r="C7" t="n">
-        <v>4.908521016303619e+17</v>
+        <v>4.744957384775965e+17</v>
       </c>
       <c r="D7" t="n">
-        <v>376534.9179807025</v>
+        <v>385074.7483676632</v>
       </c>
       <c r="E7" t="n">
-        <v>475.9562000761447</v>
+        <v>463.3295814859117</v>
       </c>
       <c r="F7" t="n">
-        <v>345265.4858620663</v>
+        <v>328889.5743573083</v>
       </c>
       <c r="G7" t="n">
-        <v>587.5929593367047</v>
+        <v>573.4889487665026</v>
       </c>
       <c r="H7" t="n">
-        <v>1943.508481819443</v>
+        <v>2077.62217874504</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08968866590716407</v>
+        <v>0.1170128131526571</v>
       </c>
       <c r="J7" t="n">
-        <v>0.741000579944578</v>
+        <v>0.7488999039148827</v>
       </c>
       <c r="K7" t="n">
         <v>5</v>
@@ -1214,31 +1214,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>506.079649845669</v>
+        <v>496.8556368973103</v>
       </c>
       <c r="C8" t="n">
-        <v>5.214325482325727e+17</v>
+        <v>5.098273284627778e+17</v>
       </c>
       <c r="D8" t="n">
-        <v>374276.5630605293</v>
+        <v>379412.3131870109</v>
       </c>
       <c r="E8" t="n">
-        <v>473.9239968578124</v>
+        <v>465.275074905478</v>
       </c>
       <c r="F8" t="n">
-        <v>337709.0103580336</v>
+        <v>326658.3712811564</v>
       </c>
       <c r="G8" t="n">
-        <v>581.1273615637399</v>
+        <v>571.5403496527226</v>
       </c>
       <c r="H8" t="n">
-        <v>2342.26017449244</v>
+        <v>2344.965872806561</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09302210781675313</v>
+        <v>0.07533270095448519</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7269832885623833</v>
+        <v>0.7309607446176554</v>
       </c>
       <c r="K8" t="n">
         <v>6</v>
@@ -1254,31 +1254,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>501.5356941504168</v>
+        <v>504.1676671238131</v>
       </c>
       <c r="C9" t="n">
-        <v>4.957817445754776e+17</v>
+        <v>4.941525377093059e+17</v>
       </c>
       <c r="D9" t="n">
-        <v>377345.7356730286</v>
+        <v>381593.4280292107</v>
       </c>
       <c r="E9" t="n">
-        <v>468.1856737767882</v>
+        <v>467.1386282203566</v>
       </c>
       <c r="F9" t="n">
-        <v>334606.0103407986</v>
+        <v>335693.7139173317</v>
       </c>
       <c r="G9" t="n">
-        <v>578.4513897820616</v>
+        <v>579.3908127657287</v>
       </c>
       <c r="H9" t="n">
-        <v>2871.336293185844</v>
+        <v>1811.872097148605</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1007109134492457</v>
+        <v>0.08418352546661789</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7298069573466495</v>
+        <v>0.736005017069121</v>
       </c>
       <c r="K9" t="n">
         <v>7</v>
@@ -1294,31 +1294,31 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>497.6757644750103</v>
+        <v>501.3551867661254</v>
       </c>
       <c r="C10" t="n">
-        <v>4.890576147841641e+17</v>
+        <v>5.111136938194444e+17</v>
       </c>
       <c r="D10" t="n">
-        <v>381452.6117930522</v>
+        <v>374824.815552264</v>
       </c>
       <c r="E10" t="n">
-        <v>465.5487582045559</v>
+        <v>463.6050959839549</v>
       </c>
       <c r="F10" t="n">
-        <v>326564.1836213452</v>
+        <v>332005.6327198665</v>
       </c>
       <c r="G10" t="n">
-        <v>571.4579456279746</v>
+        <v>576.1992994788058</v>
       </c>
       <c r="H10" t="n">
-        <v>2114.43146201589</v>
+        <v>1941.776495563533</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1306231646923529</v>
+        <v>0.1096844480620445</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7570732604977086</v>
+        <v>0.7486355739743584</v>
       </c>
       <c r="K10" t="n">
         <v>8</v>
@@ -1334,31 +1334,31 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>502.6682146827141</v>
+        <v>501.0058541350832</v>
       </c>
       <c r="C11" t="n">
-        <v>4.963923817123243e+17</v>
+        <v>4.964582027973083e+17</v>
       </c>
       <c r="D11" t="n">
-        <v>376027.669370508</v>
+        <v>378759.6948749748</v>
       </c>
       <c r="E11" t="n">
-        <v>466.7610663242374</v>
+        <v>474.5954762155959</v>
       </c>
       <c r="F11" t="n">
-        <v>332778.3233403128</v>
+        <v>327528.19512164</v>
       </c>
       <c r="G11" t="n">
-        <v>576.8694161942656</v>
+        <v>572.3007907749561</v>
       </c>
       <c r="H11" t="n">
-        <v>1829.17836007945</v>
+        <v>1707.246176979122</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1218501822556947</v>
+        <v>0.09117918118783586</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7468733539663499</v>
+        <v>0.7505389425484382</v>
       </c>
       <c r="K11" t="n">
         <v>9</v>
@@ -1450,31 +1450,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>223.1861939992467</v>
+        <v>228.088824202972</v>
       </c>
       <c r="C2" t="n">
-        <v>1.509096947786884e+17</v>
+        <v>1.750981692933754e+17</v>
       </c>
       <c r="D2" t="n">
-        <v>-21011.35788029479</v>
+        <v>-17771.34935443525</v>
       </c>
       <c r="E2" t="n">
-        <v>174.3091656607338</v>
+        <v>177.1930888439769</v>
       </c>
       <c r="F2" t="n">
-        <v>91743.79230842608</v>
+        <v>96429.84413001107</v>
       </c>
       <c r="G2" t="n">
-        <v>302.8923774353295</v>
+        <v>310.531550941303</v>
       </c>
       <c r="H2" t="n">
-        <v>2916.139967017875</v>
+        <v>2698.301364399185</v>
       </c>
       <c r="I2" t="n">
-        <v>0.75182716132159</v>
+        <v>0.7437035370912559</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7518407840557189</v>
+        <v>0.7437248788675892</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1490,31 +1490,31 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>225.9161921775134</v>
+        <v>228.9587205461176</v>
       </c>
       <c r="C3" t="n">
-        <v>1.588870183653845e+17</v>
+        <v>1.591401811812814e+17</v>
       </c>
       <c r="D3" t="n">
-        <v>-12773.15701130311</v>
+        <v>-16727.45675313312</v>
       </c>
       <c r="E3" t="n">
-        <v>173.8538666315044</v>
+        <v>180.5718230568246</v>
       </c>
       <c r="F3" t="n">
-        <v>94275.22259687226</v>
+        <v>97246.39973361343</v>
       </c>
       <c r="G3" t="n">
-        <v>307.0427048422943</v>
+        <v>311.8435500914095</v>
       </c>
       <c r="H3" t="n">
-        <v>2415.110679555933</v>
+        <v>3361.730013590212</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7511538104342513</v>
+        <v>0.7428955442502716</v>
       </c>
       <c r="J3" t="n">
-        <v>0.751182743053537</v>
+        <v>0.7429109228403663</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -1530,31 +1530,31 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>226.7992338314269</v>
+        <v>226.8779420570107</v>
       </c>
       <c r="C4" t="n">
-        <v>1.58352024144939e+17</v>
+        <v>1.585511388637728e+17</v>
       </c>
       <c r="D4" t="n">
-        <v>-18381.00367993413</v>
+        <v>-17332.40894850326</v>
       </c>
       <c r="E4" t="n">
-        <v>178.4157835214156</v>
+        <v>176.1799648393098</v>
       </c>
       <c r="F4" t="n">
-        <v>92536.84436925974</v>
+        <v>94874.96515992795</v>
       </c>
       <c r="G4" t="n">
-        <v>304.1986922543549</v>
+        <v>308.0178000699439</v>
       </c>
       <c r="H4" t="n">
-        <v>2089.247810522467</v>
+        <v>2921.735867765207</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7455574582223556</v>
+        <v>0.7420378530521798</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7455601764844163</v>
+        <v>0.7420439482229837</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -1570,31 +1570,31 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>223.5558054152673</v>
+        <v>228.4799912498425</v>
       </c>
       <c r="C5" t="n">
-        <v>1.555527401232378e+17</v>
+        <v>1.601252089412915e+17</v>
       </c>
       <c r="D5" t="n">
-        <v>-27771.17188576728</v>
+        <v>-20869.16017410553</v>
       </c>
       <c r="E5" t="n">
-        <v>177.0379454861835</v>
+        <v>180.8033512632995</v>
       </c>
       <c r="F5" t="n">
-        <v>89038.85504944423</v>
+        <v>95198.96193422402</v>
       </c>
       <c r="G5" t="n">
-        <v>298.3937919083509</v>
+        <v>308.5432902109914</v>
       </c>
       <c r="H5" t="n">
-        <v>2284.56865611479</v>
+        <v>2140.62239507458</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7506678574516927</v>
+        <v>0.7476008514712686</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7506980365225896</v>
+        <v>0.7476119630221272</v>
       </c>
       <c r="K5" t="n">
         <v>3</v>
@@ -1610,31 +1610,31 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>224.4505089366429</v>
+        <v>228.811907713958</v>
       </c>
       <c r="C6" t="n">
-        <v>1.702906572987494e+17</v>
+        <v>1.675536145143632e+17</v>
       </c>
       <c r="D6" t="n">
-        <v>-11677.17446763653</v>
+        <v>-14643.23940669554</v>
       </c>
       <c r="E6" t="n">
-        <v>175.0214735105537</v>
+        <v>177.8856367816976</v>
       </c>
       <c r="F6" t="n">
-        <v>93007.45140561281</v>
+        <v>95882.11778223205</v>
       </c>
       <c r="G6" t="n">
-        <v>304.9712304556166</v>
+        <v>309.6483776515421</v>
       </c>
       <c r="H6" t="n">
-        <v>2277.024820186133</v>
+        <v>2116.381835586625</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7484056272339201</v>
+        <v>0.7554038996623281</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7484268983767399</v>
+        <v>0.7555327938355694</v>
       </c>
       <c r="K6" t="n">
         <v>4</v>
@@ -1650,31 +1650,31 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>230.8355443179794</v>
+        <v>222.6435080294784</v>
       </c>
       <c r="C7" t="n">
-        <v>1.521130521550935e+17</v>
+        <v>1.465621219515938e+17</v>
       </c>
       <c r="D7" t="n">
-        <v>-10454.01878318196</v>
+        <v>-23352.22653959886</v>
       </c>
       <c r="E7" t="n">
-        <v>178.0025818876564</v>
+        <v>172.4636162819227</v>
       </c>
       <c r="F7" t="n">
-        <v>97472.94404062864</v>
+        <v>93274.28543606197</v>
       </c>
       <c r="G7" t="n">
-        <v>312.2065727056826</v>
+        <v>305.4083912338722</v>
       </c>
       <c r="H7" t="n">
-        <v>2258.157935688205</v>
+        <v>2567.248734922932</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7430072527926265</v>
+        <v>0.749581606339069</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7432845457866735</v>
+        <v>0.7495976314581148</v>
       </c>
       <c r="K7" t="n">
         <v>5</v>
@@ -1690,31 +1690,31 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>230.0680156091097</v>
+        <v>224.1416332089594</v>
       </c>
       <c r="C8" t="n">
-        <v>1.771059526214828e+17</v>
+        <v>1.57156689930234e+17</v>
       </c>
       <c r="D8" t="n">
-        <v>-9448.978449960294</v>
+        <v>-12749.30614428776</v>
       </c>
       <c r="E8" t="n">
-        <v>179.8422651806238</v>
+        <v>175.3716570146505</v>
       </c>
       <c r="F8" t="n">
-        <v>101093.991689151</v>
+        <v>94496.98127950904</v>
       </c>
       <c r="G8" t="n">
-        <v>317.9528136204349</v>
+        <v>307.4036129903308</v>
       </c>
       <c r="H8" t="n">
-        <v>2814.456070483171</v>
+        <v>2807.516919981228</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7284940209400733</v>
+        <v>0.7325087120682687</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7285052773081981</v>
+        <v>0.7326394848797267</v>
       </c>
       <c r="K8" t="n">
         <v>6</v>
@@ -1730,31 +1730,31 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>228.8832150442605</v>
+        <v>224.2017478645488</v>
       </c>
       <c r="C9" t="n">
-        <v>1.70977197951185e+17</v>
+        <v>1.578203787117139e+17</v>
       </c>
       <c r="D9" t="n">
-        <v>-21116.84624162434</v>
+        <v>-19861.13046046358</v>
       </c>
       <c r="E9" t="n">
-        <v>176.0699370973953</v>
+        <v>170.768843539153</v>
       </c>
       <c r="F9" t="n">
-        <v>100201.1923889704</v>
+        <v>96260.63909092311</v>
       </c>
       <c r="G9" t="n">
-        <v>316.5457192712775</v>
+        <v>310.258987123537</v>
       </c>
       <c r="H9" t="n">
-        <v>3363.499070416171</v>
+        <v>2279.80789087754</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7306986844528103</v>
+        <v>0.7373883529130094</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7307333750822755</v>
+        <v>0.737392787287116</v>
       </c>
       <c r="K9" t="n">
         <v>7</v>
@@ -1770,31 +1770,31 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>223.6763754604236</v>
+        <v>226.817756524584</v>
       </c>
       <c r="C10" t="n">
-        <v>1.542436264052972e+17</v>
+        <v>1.685538919298124e+17</v>
       </c>
       <c r="D10" t="n">
-        <v>-26507.65339435836</v>
+        <v>-19247.09705555956</v>
       </c>
       <c r="E10" t="n">
-        <v>177.2496681584805</v>
+        <v>179.3783643836816</v>
       </c>
       <c r="F10" t="n">
-        <v>90991.06387110976</v>
+        <v>92982.59687860333</v>
       </c>
       <c r="G10" t="n">
-        <v>301.6472507269207</v>
+        <v>304.9304787629524</v>
       </c>
       <c r="H10" t="n">
-        <v>2610.847850297985</v>
+        <v>2203.440730828308</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7577642401799178</v>
+        <v>0.7506552783987013</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7577843019903924</v>
+        <v>0.750655403865459</v>
       </c>
       <c r="K10" t="n">
         <v>8</v>
@@ -1810,31 +1810,31 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>223.6600704531905</v>
+        <v>221.9279791577896</v>
       </c>
       <c r="C11" t="n">
-        <v>1.67527090940837e+17</v>
+        <v>1.649832930847542e+17</v>
       </c>
       <c r="D11" t="n">
-        <v>-18848.379674276</v>
+        <v>-16407.04219970624</v>
       </c>
       <c r="E11" t="n">
-        <v>172.4066485747945</v>
+        <v>174.3081902089546</v>
       </c>
       <c r="F11" t="n">
-        <v>95471.58238816269</v>
+        <v>89100.40948653236</v>
       </c>
       <c r="G11" t="n">
-        <v>308.9847607701109</v>
+        <v>298.4969170469477</v>
       </c>
       <c r="H11" t="n">
-        <v>2311.88721889868</v>
+        <v>2121.448745552199</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7480654634220603</v>
+        <v>0.7527653853556766</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7480712556897138</v>
+        <v>0.7527655492484806</v>
       </c>
       <c r="K11" t="n">
         <v>9</v>
@@ -1926,31 +1926,31 @@
         <v>30</v>
       </c>
       <c r="B2" t="n">
-        <v>223.9137260894648</v>
+        <v>228.8547159881111</v>
       </c>
       <c r="C2" t="n">
-        <v>1.505227285303284e+17</v>
+        <v>1.750795325652146e+17</v>
       </c>
       <c r="D2" t="n">
-        <v>-22432.70472037367</v>
+        <v>-18198.82522382531</v>
       </c>
       <c r="E2" t="n">
-        <v>175.9526182858658</v>
+        <v>179.6221012103048</v>
       </c>
       <c r="F2" t="n">
-        <v>92085.64050598723</v>
+        <v>96694.21271167559</v>
       </c>
       <c r="G2" t="n">
-        <v>303.4561591169097</v>
+        <v>310.9569306377904</v>
       </c>
       <c r="H2" t="n">
-        <v>2888.919377816831</v>
+        <v>2709.860170686426</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7509024400358093</v>
+        <v>0.743000883955226</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7509258100060385</v>
+        <v>0.7430260512638189</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1966,31 +1966,31 @@
         <v>31</v>
       </c>
       <c r="B3" t="n">
-        <v>227.23630469509</v>
+        <v>230.1689678282945</v>
       </c>
       <c r="C3" t="n">
-        <v>1.60638267040277e+17</v>
+        <v>1.59901528388624e+17</v>
       </c>
       <c r="D3" t="n">
-        <v>-13664.73181462201</v>
+        <v>-16433.03677446405</v>
       </c>
       <c r="E3" t="n">
-        <v>176.38359132294</v>
+        <v>181.0753811992251</v>
       </c>
       <c r="F3" t="n">
-        <v>94888.09987904552</v>
+        <v>97854.99088983252</v>
       </c>
       <c r="G3" t="n">
-        <v>308.0391206958063</v>
+        <v>312.8178238045788</v>
       </c>
       <c r="H3" t="n">
-        <v>2417.895325306575</v>
+        <v>3359.669060280899</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7495360770347517</v>
+        <v>0.7412865232641741</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7495718135495362</v>
+        <v>0.7412984114345171</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -2006,31 +2006,31 @@
         <v>32</v>
       </c>
       <c r="B4" t="n">
-        <v>227.7375822556758</v>
+        <v>228.0421847654427</v>
       </c>
       <c r="C4" t="n">
-        <v>1.577135417117785e+17</v>
+        <v>1.593782380819852e+17</v>
       </c>
       <c r="D4" t="n">
-        <v>-18867.21254956946</v>
+        <v>-19485.17180023115</v>
       </c>
       <c r="E4" t="n">
-        <v>180.1572285764226</v>
+        <v>177.5313809067129</v>
       </c>
       <c r="F4" t="n">
-        <v>92956.74631782717</v>
+        <v>95103.85516399091</v>
       </c>
       <c r="G4" t="n">
-        <v>304.8880881861854</v>
+        <v>308.3891294517219</v>
       </c>
       <c r="H4" t="n">
-        <v>2074.468546441042</v>
+        <v>2894.159046639436</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7444028811474714</v>
+        <v>0.7414155080872732</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7444068263240684</v>
+        <v>0.7414253233050161</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -2046,31 +2046,31 @@
         <v>33</v>
       </c>
       <c r="B5" t="n">
-        <v>224.7748589302993</v>
+        <v>229.0373278023264</v>
       </c>
       <c r="C5" t="n">
-        <v>1.556919597840734e+17</v>
+        <v>1.602334967980014e+17</v>
       </c>
       <c r="D5" t="n">
-        <v>-30888.02459395299</v>
+        <v>-20902.70733336679</v>
       </c>
       <c r="E5" t="n">
-        <v>180.2859172148927</v>
+        <v>181.4784122778663</v>
       </c>
       <c r="F5" t="n">
-        <v>89549.44000318705</v>
+        <v>95579.099581913</v>
       </c>
       <c r="G5" t="n">
-        <v>299.248124477309</v>
+        <v>309.1586964358483</v>
       </c>
       <c r="H5" t="n">
-        <v>2271.613426628224</v>
+        <v>2132.979587326721</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7492380856919487</v>
+        <v>0.746592999950086</v>
       </c>
       <c r="J5" t="n">
-        <v>0.74927061029085</v>
+        <v>0.7466034260276769</v>
       </c>
       <c r="K5" t="n">
         <v>3</v>
@@ -2086,31 +2086,31 @@
         <v>34</v>
       </c>
       <c r="B6" t="n">
-        <v>225.6006453624892</v>
+        <v>229.8759548949018</v>
       </c>
       <c r="C6" t="n">
-        <v>1.714963741751696e+17</v>
+        <v>1.680265038355734e+17</v>
       </c>
       <c r="D6" t="n">
-        <v>-10723.97223978791</v>
+        <v>-16841.12083193645</v>
       </c>
       <c r="E6" t="n">
-        <v>177.02974879109</v>
+        <v>179.0214418822994</v>
       </c>
       <c r="F6" t="n">
-        <v>93503.94206364074</v>
+        <v>96426.76243255919</v>
       </c>
       <c r="G6" t="n">
-        <v>305.7841429237964</v>
+        <v>310.5265889300934</v>
       </c>
       <c r="H6" t="n">
-        <v>2274.892399697199</v>
+        <v>2114.379214010641</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7470625708034628</v>
+        <v>0.7540145065135205</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7470971903895618</v>
+        <v>0.7541543111076286</v>
       </c>
       <c r="K6" t="n">
         <v>4</v>
@@ -2126,31 +2126,31 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>232.756711595923</v>
+        <v>223.6442015401831</v>
       </c>
       <c r="C7" t="n">
-        <v>1.546660509162865e+17</v>
+        <v>1.465223282086985e+17</v>
       </c>
       <c r="D7" t="n">
-        <v>-10406.40130868839</v>
+        <v>-22240.3210789216</v>
       </c>
       <c r="E7" t="n">
-        <v>180.0583617795853</v>
+        <v>173.6903505889698</v>
       </c>
       <c r="F7" t="n">
-        <v>98334.46645309964</v>
+        <v>93539.91113132291</v>
       </c>
       <c r="G7" t="n">
-        <v>313.5832687709911</v>
+        <v>305.8429517437388</v>
       </c>
       <c r="H7" t="n">
-        <v>2209.042946639664</v>
+        <v>2563.156558570295</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7407358018403565</v>
+        <v>0.7488684670251484</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7410210118077872</v>
+        <v>0.7488891028459455</v>
       </c>
       <c r="K7" t="n">
         <v>5</v>
@@ -2166,31 +2166,31 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>231.6235403290772</v>
+        <v>225.6772296071692</v>
       </c>
       <c r="C8" t="n">
-        <v>1.792904994424729e+17</v>
+        <v>1.585003319524281e+17</v>
       </c>
       <c r="D8" t="n">
-        <v>-10629.12366232293</v>
+        <v>-13001.16695086514</v>
       </c>
       <c r="E8" t="n">
-        <v>180.9915790081534</v>
+        <v>177.8224095387445</v>
       </c>
       <c r="F8" t="n">
-        <v>101698.5521591432</v>
+        <v>95080.09623652867</v>
       </c>
       <c r="G8" t="n">
-        <v>318.9021043504467</v>
+        <v>308.350606025882</v>
       </c>
       <c r="H8" t="n">
-        <v>2834.720985053901</v>
+        <v>2828.045347469604</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7268703657696367</v>
+        <v>0.730858096686132</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7268809962093626</v>
+        <v>0.7310018964957767</v>
       </c>
       <c r="K8" t="n">
         <v>6</v>
@@ -2206,31 +2206,31 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>230.1502693358489</v>
+        <v>225.5173586836245</v>
       </c>
       <c r="C9" t="n">
-        <v>1.707978622591452e+17</v>
+        <v>1.58772664859043e+17</v>
       </c>
       <c r="D9" t="n">
-        <v>-22844.39255298522</v>
+        <v>-23366.20806405773</v>
       </c>
       <c r="E9" t="n">
-        <v>178.8256582417457</v>
+        <v>172.898946061083</v>
       </c>
       <c r="F9" t="n">
-        <v>100554.2835146536</v>
+        <v>96775.38366849312</v>
       </c>
       <c r="G9" t="n">
-        <v>317.1029541247662</v>
+        <v>311.0874212636909</v>
       </c>
       <c r="H9" t="n">
-        <v>3361.114984605968</v>
+        <v>2277.482921663336</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7297497146612595</v>
+        <v>0.7359840622016516</v>
       </c>
       <c r="J9" t="n">
-        <v>0.729798202359611</v>
+        <v>0.7359885876689127</v>
       </c>
       <c r="K9" t="n">
         <v>7</v>
@@ -2246,31 +2246,31 @@
         <v>38</v>
       </c>
       <c r="B10" t="n">
-        <v>224.3935106175484</v>
+        <v>228.3537763241946</v>
       </c>
       <c r="C10" t="n">
-        <v>1.540450736797036e+17</v>
+        <v>1.704972282508502e+17</v>
       </c>
       <c r="D10" t="n">
-        <v>-27037.70917085361</v>
+        <v>-19903.96809662828</v>
       </c>
       <c r="E10" t="n">
-        <v>177.956447600152</v>
+        <v>182.0492415343627</v>
       </c>
       <c r="F10" t="n">
-        <v>91240.7831430145</v>
+        <v>93692.20811575494</v>
       </c>
       <c r="G10" t="n">
-        <v>302.0608931043781</v>
+        <v>306.0918295475313</v>
       </c>
       <c r="H10" t="n">
-        <v>2604.591716414463</v>
+        <v>2207.413298812176</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7570994393192834</v>
+        <v>0.7487523651406027</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7571210807295337</v>
+        <v>0.7487528500227694</v>
       </c>
       <c r="K10" t="n">
         <v>8</v>
@@ -2286,31 +2286,31 @@
         <v>39</v>
       </c>
       <c r="B11" t="n">
-        <v>224.5919879478583</v>
+        <v>223.5284528573029</v>
       </c>
       <c r="C11" t="n">
-        <v>1.682858560261756e+17</v>
+        <v>1.658264577836329e+17</v>
       </c>
       <c r="D11" t="n">
-        <v>-19046.69780688925</v>
+        <v>-16241.11491593242</v>
       </c>
       <c r="E11" t="n">
-        <v>173.0219309691444</v>
+        <v>176.2253753613581</v>
       </c>
       <c r="F11" t="n">
-        <v>95923.87750567838</v>
+        <v>89896.28582802672</v>
       </c>
       <c r="G11" t="n">
-        <v>309.715801188248</v>
+        <v>299.8270932187862</v>
       </c>
       <c r="H11" t="n">
-        <v>2318.817801597377</v>
+        <v>2113.854225199881</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7468719275239697</v>
+        <v>0.750556998416404</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7468750857455664</v>
+        <v>0.7505570999802353</v>
       </c>
       <c r="K11" t="n">
         <v>9</v>
